--- a/geodata/2021_Qanassiasat_GreenlandTrees.xlsx
+++ b/geodata/2021_Qanassiasat_GreenlandTrees.xlsx
@@ -477,68 +477,68 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021/Aug/20</t>
+          <t>2021/Aug/21</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>betula</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>100</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>61.2345</t>
+          <t>61.2341</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>45.4969</t>
+          <t>45.4970</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>16</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Niels Sakkariasen</t>
+          <t>shoreline</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021/Aug/20</t>
+          <t>2021/Aug/21</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>sitchensis</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>101</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>61.2345</t>
+          <t>61.2341</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -548,38 +548,38 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>17</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Niels Sakkariasen</t>
+          <t>shoreline</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021/Aug/20</t>
+          <t>2021/Aug/21</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>sitchensis</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>102</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>61.2343</t>
+          <t>61.2341</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -589,22 +589,22 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>18</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Niels Sakkariasen</t>
+          <t>shoreline</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021/Aug/20</t>
+          <t>2021/Aug/21</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -615,37 +615,37 @@
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>103</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>61.2340</t>
+          <t>61.2341</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>45.4967</t>
+          <t>45.4969</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>18</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>shoreline</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021/Aug/20</t>
+          <t>2021/Aug/21</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -656,7 +656,7 @@
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>104</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -666,125 +666,125 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>45.4967</t>
+          <t>45.4968</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>15</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>shoreline</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021/Aug/20</t>
+          <t>2021/Aug/21</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Engelmani Blue Spruce</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>105</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>61.2343</t>
+          <t>61.2341</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>45.4969</t>
+          <t>45.4968</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>16</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Niels Sakkariasen</t>
+          <t>shoreline</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021/Aug/20</t>
+          <t>2021/Aug/21</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Engelmani Blue Spruce</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>106</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>61.2343</t>
+          <t>61.2341</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>45.4969</t>
+          <t>45.4971</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Niels Sakkariasen</t>
+          <t>shoreline</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2021/Aug/20</t>
+          <t>2021/Aug/21</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>sitchensis</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>107</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>61.2343</t>
+          <t>61.2341</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -794,79 +794,79 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>14</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Niels Sakkariasen</t>
+          <t>shoreline</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2021/Aug/20</t>
+          <t>2021/Aug/21</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>sitchensis</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>108</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>61.2343</t>
+          <t>61.2341</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>45.4970</t>
+          <t>45.4971</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>14</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Niels Sakkariasen</t>
+          <t>shoreline</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2021/Aug/20</t>
+          <t>2021/Aug/21</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>sitchensis</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>109</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>61.2343</t>
+          <t>61.2341</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -876,63 +876,63 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>14</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Niels Sakkariasen</t>
+          <t>shoreline</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2021/Aug/20</t>
+          <t>2021/Aug/21</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Engelmani Blue Spruce</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>110</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>61.2343</t>
+          <t>61.2341</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>45.4969</t>
+          <t>45.4970</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Niels Sakkariasen</t>
+          <t>shoreline</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2021/Aug/20</t>
+          <t>2021/Aug/21</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -943,12 +943,12 @@
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>112</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>61.2343</t>
+          <t>61.2341</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -958,7 +958,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>15</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -969,11 +969,11 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2021/Aug/20</t>
+          <t>2021/Aug/21</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -984,22 +984,22 @@
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>113</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>61.2343</t>
+          <t>61.2342</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>45.4968</t>
+          <t>45.4970</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1010,11 +1010,11 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2021/Aug/20</t>
+          <t>2021/Aug/21</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1025,22 +1025,22 @@
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>114</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>61.2343</t>
+          <t>61.2347</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>45.4968</t>
+          <t>45.4950</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1051,11 +1051,11 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2021/Aug/20</t>
+          <t>2021/Aug/21</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1066,22 +1066,22 @@
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>115</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>61.2343</t>
+          <t>61.2342</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>45.4968</t>
+          <t>45.4970</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>9</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1092,11 +1092,11 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2021/Aug/20</t>
+          <t>2021/Aug/21</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1107,22 +1107,22 @@
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>116</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>61.2343</t>
+          <t>61.2342</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>45.4968</t>
+          <t>45.4969</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1133,11 +1133,11 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2021/Aug/20</t>
+          <t>2021/Aug/21</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1148,22 +1148,22 @@
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>117</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>61.2343</t>
+          <t>61.2347</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>45.4968</t>
+          <t>45.4963</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>22</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1174,11 +1174,11 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2021/Aug/20</t>
+          <t>2021/Aug/21</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1189,22 +1189,22 @@
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>118</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>61.2343</t>
+          <t>61.2347</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>45.4968</t>
+          <t>45.4963</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>24</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1215,11 +1215,11 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2021/Aug/20</t>
+          <t>2021/Aug/21</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1230,22 +1230,22 @@
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>119</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>61.2343</t>
+          <t>61.2346</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>45.4969</t>
+          <t>45.4963</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>23</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1256,11 +1256,11 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2021/Aug/20</t>
+          <t>2021/Aug/21</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1271,22 +1271,22 @@
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>120</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>61.2343</t>
+          <t>61.2344</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>45.4969</t>
+          <t>45.4963</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>21</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1297,11 +1297,11 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2021/Aug/20</t>
+          <t>2021/Aug/21</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1312,7 +1312,7 @@
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>121</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1322,12 +1322,12 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>45.4969</t>
+          <t>45.4963</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>20</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1338,11 +1338,11 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2021/Aug/20</t>
+          <t>2021/Aug/21</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1353,22 +1353,22 @@
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>122</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>61.2341</t>
+          <t>61.2343</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>45.4967</t>
+          <t>45.4963</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>20</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1379,37 +1379,37 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2021/Aug/20</t>
+          <t>2021/Aug/28</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>sitka</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>123</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>61.2341</t>
+          <t>61.2328</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>45.4967</t>
+          <t>45.4957</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1420,37 +1420,37 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2021/Aug/20</t>
+          <t>2021/Aug/28</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>contorta</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>124</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>61.2340</t>
+          <t>61.2328</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>45.4967</t>
+          <t>45.4959</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1461,37 +1461,37 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2021/Aug/20</t>
+          <t>2021/Aug/28</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>sibirca</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>125</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>61.2343</t>
+          <t>61.2328</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>45.4963</t>
+          <t>45.4959</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>8</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1502,37 +1502,37 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2021/Aug/21</t>
+          <t>2021/Aug/28</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>contorta</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>126</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>61.2341</t>
+          <t>61.2328</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>45.4970</t>
+          <t>45.4958</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>8</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1543,37 +1543,37 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2021/Aug/21</t>
+          <t>2021/Aug/28</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>sibirca</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>127</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>61.2341</t>
+          <t>61.2328</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>45.4970</t>
+          <t>45.4956</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>9</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1584,37 +1584,37 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2021/Aug/21</t>
+          <t>2021/Aug/28</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>sibirca</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>128</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>61.2341</t>
+          <t>61.2328</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>45.4970</t>
+          <t>45.4956</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>9</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1625,37 +1625,37 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2021/Aug/21</t>
+          <t>2021/Aug/28</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>contorta</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>129</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>61.2341</t>
+          <t>61.2328</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>45.4970</t>
+          <t>45.4956</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>8</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -1666,37 +1666,37 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2021/Aug/21</t>
+          <t>2021/Aug/28</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>sibirca</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>130</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>61.2341</t>
+          <t>61.2328</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>45.4969</t>
+          <t>45.4957</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>8</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -1707,37 +1707,37 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2021/Aug/21</t>
+          <t>2021/Aug/28</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>sibirca</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>131</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>61.2341</t>
+          <t>61.2328</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>45.4969</t>
+          <t>45.4958</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>8</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -1748,37 +1748,37 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2021/Aug/21</t>
+          <t>2021/Aug/28</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>contorta</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>132</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>61.2341</t>
+          <t>61.2328</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>45.4969</t>
+          <t>45.4957</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>9</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -1789,37 +1789,37 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2021/Aug/21</t>
+          <t>2021/Aug/28</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>contorta</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>133</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>61.2341</t>
+          <t>61.2328</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>45.4968</t>
+          <t>45.4957</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>7</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -1830,37 +1830,37 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2021/Aug/21</t>
+          <t>2021/Aug/28</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>sibirca</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>134</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>61.2341</t>
+          <t>61.2328</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>45.4968</t>
+          <t>45.4957</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>7</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -1871,37 +1871,37 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2021/Aug/21</t>
+          <t>2021/Aug/28</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>sibirca</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>136</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>61.2341</t>
+          <t>61.2328</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>45.4971</t>
+          <t>45.4957</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -1912,37 +1912,37 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2021/Aug/21</t>
+          <t>2021/Aug/28</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>contorta</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>137</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>61.2341</t>
+          <t>61.2329</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>45.4970</t>
+          <t>45.4957</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -1953,37 +1953,37 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2021/Aug/21</t>
+          <t>2021/Aug/28</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>contorta</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>138</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>61.2341</t>
+          <t>61.2328</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>45.4971</t>
+          <t>45.4958</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>8</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -1994,37 +1994,37 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2021/Aug/21</t>
+          <t>2021/Aug/28</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>sibirca</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>139</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>61.2341</t>
+          <t>61.2328</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>45.4970</t>
+          <t>45.4959</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>8</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2035,37 +2035,37 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2021/Aug/21</t>
+          <t>2021/Aug/28</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>sitka</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>140</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>61.2341</t>
+          <t>61.2328</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>45.4970</t>
+          <t>45.4958</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>7</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2076,37 +2076,37 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2021/Aug/21</t>
+          <t>2021/Aug/28</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>sibirca</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>141</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>61.2341</t>
+          <t>61.2329</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>45.4969</t>
+          <t>45.4960</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>8</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2117,37 +2117,37 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2021/Aug/21</t>
+          <t>2021/Aug/28</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>contorta</t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>142</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>61.2342</t>
+          <t>61.2328</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>45.4970</t>
+          <t>45.4960</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>7</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2158,37 +2158,37 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2021/Aug/21</t>
+          <t>2021/Aug/28</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>sibirca</t>
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>143</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>61.2347</t>
+          <t>61.2329</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>45.4950</t>
+          <t>45.4959</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>8</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2199,37 +2199,37 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2021/Aug/21</t>
+          <t>2021/Aug/28</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>sibirca</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>144</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>61.2342</t>
+          <t>61.2328</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>45.4970</t>
+          <t>45.4960</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2240,37 +2240,37 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2021/Aug/21</t>
+          <t>2021/Aug/28</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>contorta</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>145</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>61.2342</t>
+          <t>61.2329</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>45.4969</t>
+          <t>45.4959</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>9</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2281,37 +2281,37 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2021/Aug/21</t>
+          <t>2021/Aug/28</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>sibirca</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>146</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>61.2347</t>
+          <t>61.2328</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>45.4963</t>
+          <t>45.4960</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>7</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2322,37 +2322,37 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2021/Aug/21</t>
+          <t>2021/Aug/28</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>sibirca</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>147</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>61.2347</t>
+          <t>61.2328</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>45.4963</t>
+          <t>45.4960</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>7</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -2363,237 +2363,249 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2021/Aug/21</t>
+          <t>2021/Aug/29</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr"/>
+          <t>sibirca</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>26</v>
+      </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>148</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>61.2346</t>
+          <t>61.2348</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>45.4963</t>
+          <t>45.4969</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>shoreline</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2021/Aug/21</t>
+          <t>2021/Aug/29</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr"/>
+          <t>sibirca</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>24</v>
+      </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>149</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>61.2344</t>
+          <t>61.2348</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>45.4963</t>
+          <t>45.4969</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>shoreline</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2021/Aug/21</t>
+          <t>2021/Aug/29</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr"/>
+          <t>sibirca</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>21</v>
+      </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>150</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>61.2343</t>
+          <t>61.2348</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>45.4963</t>
+          <t>45.4968</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>6</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>shoreline</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2021/Aug/21</t>
+          <t>2021/Aug/29</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr"/>
+          <t>sibirca</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>24</v>
+      </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>151</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>61.2343</t>
+          <t>61.2349</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>45.4963</t>
+          <t>45.4968</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>shoreline</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2021/Aug/28</t>
+          <t>2021/Aug/29</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>sitka</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr"/>
+          <t>sibirca</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>26</v>
+      </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>152</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>61.2328</t>
+          <t>61.2349</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>45.4957</t>
+          <t>45.4968</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>shoreline</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2021/Aug/28</t>
+          <t>2021/Aug/29</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>contorta</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr"/>
+          <t>sibirca</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>22</v>
+      </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>153</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>61.2328</t>
+          <t>61.2349</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>45.4959</t>
+          <t>45.4968</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2603,140 +2615,146 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>shoreline</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2021/Aug/28</t>
+          <t>2021/Aug/29</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>sibirca</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr"/>
+          <t>contorta</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>6</v>
+      </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>154</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>61.2328</t>
+          <t>61.2349</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>45.4959</t>
+          <t>45.4967</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>shoreline</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2021/Aug/28</t>
+          <t>2021/Aug/29</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>contorta</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr"/>
+          <t>sibirca</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>11</v>
+      </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>155</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>61.2328</t>
+          <t>61.2349</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>45.4958</t>
+          <t>45.4966</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>shoreline</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2021/Aug/28</t>
+          <t>2021/Aug/29</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>sibirca</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr"/>
+          <t>sitka or engelmanni</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>6</v>
+      </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>156</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>61.2328</t>
+          <t>61.2349</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>45.4956</t>
+          <t>45.4967</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>shoreline</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2021/Aug/28</t>
+          <t>2021/Aug/29</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2744,81 +2762,85 @@
           <t>sibirca</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr"/>
+      <c r="D57" t="n">
+        <v>7</v>
+      </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>157</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>61.2328</t>
+          <t>61.2349</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>45.4956</t>
+          <t>45.4967</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>shoreline</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2021/Aug/28</t>
+          <t>2021/Aug/29</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>contorta</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr"/>
+          <t>sibirca</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>18</v>
+      </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>158</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>61.2328</t>
+          <t>61.2349</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>45.4956</t>
+          <t>45.4967</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>shoreline</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2021/Aug/28</t>
+          <t>2021/Aug/29</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2826,327 +2848,343 @@
           <t>sibirca</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr"/>
+      <c r="D59" t="n">
+        <v>14</v>
+      </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>159</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>61.2328</t>
+          <t>61.2349</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>45.4957</t>
+          <t>45.4967</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>shoreline</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2021/Aug/28</t>
+          <t>2021/Aug/29</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>sibirca</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr"/>
+          <t>contorta</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>10</v>
+      </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>160</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>61.2328</t>
+          <t>61.2349</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>45.4958</t>
+          <t>45.4967</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>shoreline</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2021/Aug/28</t>
+          <t>2021/Aug/29</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>contorta</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr"/>
+          <t>sibirca</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>23</v>
+      </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>161</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>61.2328</t>
+          <t>61.2349</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>45.4957</t>
+          <t>45.4967</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>shoreline</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2021/Aug/28</t>
+          <t>2021/Aug/29</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>contorta</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr"/>
+          <t>sibirca</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>19</v>
+      </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>162</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>61.2328</t>
+          <t>61.2348</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>45.4957</t>
+          <t>45.4967</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>shoreline</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2021/Aug/28</t>
+          <t>2021/Aug/29</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>sibirca</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr"/>
+          <t>sitka or engelmanni</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>15</v>
+      </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>163</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>61.2328</t>
+          <t>61.2349</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>45.4957</t>
+          <t>45.4967</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>shoreline</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2021/Aug/28</t>
+          <t>2021/Aug/29</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>sibirca</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr"/>
+          <t>contorta</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>10</v>
+      </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>164</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>61.2328</t>
+          <t>61.2349</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>45.4957</t>
+          <t>45.4968</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>shoreline</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2021/Aug/28</t>
+          <t>2021/Aug/29</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>contorta</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr"/>
+          <t>sibirca</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>15</v>
+      </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>165</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>61.2329</t>
+          <t>61.2349</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>45.4957</t>
+          <t>45.4967</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>15</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>shoreline</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2021/Aug/28</t>
+          <t>2021/Aug/29</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>contorta</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr"/>
+          <t>sibirca</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>11</v>
+      </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>166</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>61.2328</t>
+          <t>61.2349</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>45.4958</t>
+          <t>45.4968</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>13</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>shoreline</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2021/Aug/28</t>
+          <t>2021/Aug/29</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3154,204 +3192,214 @@
           <t>sibirca</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr"/>
+      <c r="D67" t="n">
+        <v>22</v>
+      </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>167</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>61.2328</t>
+          <t>61.2349</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>45.4959</t>
+          <t>45.4968</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>shoreline</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2021/Aug/28</t>
+          <t>2021/Aug/29</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>sitka</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr"/>
+          <t>contorta</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>5</v>
+      </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>168</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>61.2328</t>
+          <t>61.2349</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>45.4958</t>
+          <t>45.4967</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>shoreline</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2021/Aug/28</t>
+          <t>2021/Aug/29</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>sibirca</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr"/>
+          <t>contorta</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>6</v>
+      </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>169</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>61.2329</t>
+          <t>61.2349</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>45.4960</t>
+          <t>45.4968</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>shoreline</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2021/Aug/28</t>
+          <t>2021/Aug/29</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>contorta</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr"/>
+          <t>sibirca</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>6</v>
+      </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>170</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>61.2328</t>
+          <t>61.2349</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>45.4960</t>
+          <t>45.4967</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>shoreline</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2021/Aug/28</t>
+          <t>2021/Aug/29</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>sibirca</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr"/>
+          <t>contorta</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>8</v>
+      </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>171</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>61.2329</t>
+          <t>61.2349</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>45.4959</t>
+          <t>45.4967</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>13</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>shoreline</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2021/Aug/28</t>
+          <t>2021/Aug/29</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3359,81 +3407,85 @@
           <t>sibirca</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr"/>
+      <c r="D72" t="n">
+        <v>6</v>
+      </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>172</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>61.2328</t>
+          <t>61.2349</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>45.4960</t>
+          <t>45.4968</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>shoreline</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2021/Aug/28</t>
+          <t>2021/Aug/29</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>contorta</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr"/>
+          <t>sibirca</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>8</v>
+      </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>173</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>61.2329</t>
+          <t>61.2350</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>45.4959</t>
+          <t>45.4967</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>shoreline</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2021/Aug/28</t>
+          <t>2021/Aug/29</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3441,99 +3493,99 @@
           <t>sibirca</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr"/>
+      <c r="D74" t="n">
+        <v>8</v>
+      </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>174</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>61.2328</t>
+          <t>61.2350</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>45.4960</t>
+          <t>45.4967</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>13</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>shoreline</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2021/Aug/28</t>
+          <t>2021/Aug/20</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>sibirca</t>
+          <t>betula</t>
         </is>
       </c>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>61.2328</t>
+          <t>61.2345</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>45.4960</t>
+          <t>45.4969</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>27</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>shoreline</t>
+          <t>Niels Sakkariasen</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>74</v>
+        <v>1</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2021/Aug/29</t>
+          <t>2021/Aug/20</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>sibirca</t>
-        </is>
-      </c>
-      <c r="D76" t="n">
-        <v>26</v>
-      </c>
+          <t>sitchensis</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>61.2348</t>
+          <t>61.2345</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -3543,40 +3595,38 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>26</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Niels Sakkariasen</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2021/Aug/29</t>
+          <t>2021/Aug/20</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>sibirca</t>
-        </is>
-      </c>
-      <c r="D77" t="n">
-        <v>24</v>
-      </c>
+          <t>sitchensis</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>61.2348</t>
+          <t>61.2343</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -3586,50 +3636,48 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>27</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Niels Sakkariasen</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2021/Aug/29</t>
+          <t>2021/Aug/20</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>sibirca</t>
-        </is>
-      </c>
-      <c r="D78" t="n">
-        <v>21</v>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>55</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>61.2348</t>
+          <t>61.2340</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>45.4968</t>
+          <t>45.4967</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -3640,39 +3688,37 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>77</v>
+        <v>4</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2021/Aug/29</t>
+          <t>2021/Aug/20</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>sibirca</t>
-        </is>
-      </c>
-      <c r="D79" t="n">
-        <v>24</v>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>56</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>61.2349</t>
+          <t>61.2341</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>45.4968</t>
+          <t>45.4967</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>23</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -3683,378 +3729,360 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2021/Aug/29</t>
+          <t>2021/Aug/20</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>sibirca</t>
-        </is>
-      </c>
-      <c r="D80" t="n">
-        <v>26</v>
-      </c>
+          <t>Engelmani Blue Spruce</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>57</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>61.2349</t>
+          <t>61.2343</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>45.4968</t>
+          <t>45.4969</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>19</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Niels Sakkariasen</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2021/Aug/29</t>
+          <t>2021/Aug/20</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>sibirca</t>
-        </is>
-      </c>
-      <c r="D81" t="n">
-        <v>22</v>
-      </c>
+          <t>Engelmani Blue Spruce</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>58</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>61.2349</t>
+          <t>61.2343</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>45.4968</t>
+          <t>45.4969</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>19</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Niels Sakkariasen</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2021/Aug/29</t>
+          <t>2021/Aug/20</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>contorta</t>
-        </is>
-      </c>
-      <c r="D82" t="n">
-        <v>6</v>
-      </c>
+          <t>sitchensis</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>61.2349</t>
+          <t>61.2343</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>45.4967</t>
+          <t>45.4970</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>18</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Niels Sakkariasen</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>81</v>
+        <v>8</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2021/Aug/29</t>
+          <t>2021/Aug/20</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>sibirca</t>
-        </is>
-      </c>
-      <c r="D83" t="n">
-        <v>11</v>
-      </c>
+          <t>sitchensis</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>80</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>61.2349</t>
+          <t>61.2343</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>45.4966</t>
+          <t>45.4970</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Niels Sakkariasen</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2021/Aug/29</t>
+          <t>2021/Aug/20</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>sitka or engelmanni</t>
-        </is>
-      </c>
-      <c r="D84" t="n">
-        <v>6</v>
-      </c>
+          <t>sitchensis</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>61.2349</t>
+          <t>61.2343</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>45.4967</t>
+          <t>45.4970</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>18</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Niels Sakkariasen</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2021/Aug/29</t>
+          <t>2021/Aug/20</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>sibirca</t>
-        </is>
-      </c>
-      <c r="D85" t="n">
-        <v>7</v>
-      </c>
+          <t>Engelmani Blue Spruce</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>82</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>61.2349</t>
+          <t>61.2343</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>45.4967</t>
+          <t>45.4969</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>18</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Niels Sakkariasen</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2021/Aug/29</t>
+          <t>2021/Aug/20</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>sibirca</t>
-        </is>
-      </c>
-      <c r="D86" t="n">
-        <v>18</v>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>83</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>61.2349</t>
+          <t>61.2343</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>45.4967</t>
+          <t>45.4969</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>18</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>shoreline</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2021/Aug/29</t>
+          <t>2021/Aug/20</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>sibirca</t>
-        </is>
-      </c>
-      <c r="D87" t="n">
-        <v>14</v>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>61.2349</t>
+          <t>61.2343</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>45.4967</t>
+          <t>45.4968</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>shoreline</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2021/Aug/29</t>
+          <t>2021/Aug/20</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>contorta</t>
-        </is>
-      </c>
-      <c r="D88" t="n">
-        <v>10</v>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>85</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>61.2349</t>
+          <t>61.2343</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>45.4967</t>
+          <t>45.4968</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4064,164 +4092,156 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>shoreline</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2021/Aug/29</t>
+          <t>2021/Aug/20</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>sibirca</t>
-        </is>
-      </c>
-      <c r="D89" t="n">
-        <v>23</v>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>86</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>61.2349</t>
+          <t>61.2343</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>45.4967</t>
+          <t>45.4968</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>shoreline</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2021/Aug/29</t>
+          <t>2021/Aug/20</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>sibirca</t>
-        </is>
-      </c>
-      <c r="D90" t="n">
-        <v>19</v>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>87</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>61.2348</t>
+          <t>61.2343</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>45.4967</t>
+          <t>45.4968</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>shoreline</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2021/Aug/29</t>
+          <t>2021/Aug/20</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>sitka or engelmanni</t>
-        </is>
-      </c>
-      <c r="D91" t="n">
-        <v>15</v>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>61.2349</t>
+          <t>61.2343</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>45.4967</t>
+          <t>45.4968</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>shoreline</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2021/Aug/29</t>
+          <t>2021/Aug/20</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>contorta</t>
-        </is>
-      </c>
-      <c r="D92" t="n">
-        <v>10</v>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>89</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>61.2349</t>
+          <t>61.2343</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -4231,88 +4251,84 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>shoreline</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2021/Aug/29</t>
+          <t>2021/Aug/20</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>sibirca</t>
-        </is>
-      </c>
-      <c r="D93" t="n">
-        <v>15</v>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>90</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>61.2349</t>
+          <t>61.2343</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>45.4967</t>
+          <t>45.4969</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>shoreline</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2021/Aug/29</t>
+          <t>2021/Aug/20</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>sibirca</t>
-        </is>
-      </c>
-      <c r="D94" t="n">
-        <v>11</v>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>91</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>61.2349</t>
+          <t>61.2343</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>45.4968</t>
+          <t>45.4969</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4322,78 +4338,74 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>shoreline</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2021/Aug/29</t>
+          <t>2021/Aug/20</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>sibirca</t>
-        </is>
-      </c>
-      <c r="D95" t="n">
-        <v>22</v>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>92</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>61.2349</t>
+          <t>61.2343</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>45.4968</t>
+          <t>45.4969</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>shoreline</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2021/Aug/29</t>
+          <t>2021/Aug/20</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>contorta</t>
-        </is>
-      </c>
-      <c r="D96" t="n">
-        <v>5</v>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>93</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>61.2349</t>
+          <t>61.2341</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -4408,40 +4420,38 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>shoreline</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2021/Aug/29</t>
+          <t>2021/Aug/20</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>contorta</t>
-        </is>
-      </c>
-      <c r="D97" t="n">
-        <v>6</v>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>94</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>61.2349</t>
+          <t>61.2341</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>45.4968</t>
+          <t>45.4967</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -4451,35 +4461,33 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>shoreline</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2021/Aug/29</t>
+          <t>2021/Aug/20</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>sibirca</t>
-        </is>
-      </c>
-      <c r="D98" t="n">
-        <v>6</v>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>95</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>61.2349</t>
+          <t>61.2340</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -4494,179 +4502,171 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>shoreline</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2021/Aug/29</t>
+          <t>2021/Aug/20</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>contorta</t>
-        </is>
-      </c>
-      <c r="D99" t="n">
-        <v>8</v>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>96</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>61.2349</t>
+          <t>61.2343</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>45.4967</t>
+          <t>45.4963</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>shoreline</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2021/Aug/29</t>
+          <t>2021/Aug/21</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>sibirca</t>
-        </is>
-      </c>
-      <c r="D100" t="n">
-        <v>6</v>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>97</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>61.2349</t>
+          <t>61.2341</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>45.4968</t>
+          <t>45.4970</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>17</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>shoreline</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2021/Aug/29</t>
+          <t>2021/Aug/21</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>sibirca</t>
-        </is>
-      </c>
-      <c r="D101" t="n">
-        <v>8</v>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>98</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>61.2350</t>
+          <t>61.2341</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>45.4967</t>
+          <t>45.4970</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>16</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>shoreline</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2021/Aug/29</t>
+          <t>2021/Aug/21</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>sibirca</t>
-        </is>
-      </c>
-      <c r="D102" t="n">
-        <v>8</v>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>99</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>61.2350</t>
+          <t>61.2341</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>45.4967</t>
+          <t>45.4970</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>16</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>shoreline</t>
         </is>
       </c>
     </row>

--- a/geodata/2021_Qanassiasat_GreenlandTrees.xlsx
+++ b/geodata/2021_Qanassiasat_GreenlandTrees.xlsx
@@ -477,68 +477,68 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021/Aug/21</t>
+          <t>2021/Aug/20</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>betula</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>052</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>61.2341</t>
+          <t>61.2345</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>45.4970</t>
+          <t>45.4969</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>27</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>shoreline</t>
+          <t>Niels Sakkariasen</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021/Aug/21</t>
+          <t>2021/Aug/20</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>sitchensis</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>053</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>61.2341</t>
+          <t>61.2345</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -548,38 +548,38 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>26</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>shoreline</t>
+          <t>Niels Sakkariasen</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021/Aug/21</t>
+          <t>2021/Aug/20</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>sitchensis</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>054</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>61.2341</t>
+          <t>61.2343</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -589,22 +589,22 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>27</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>shoreline</t>
+          <t>Niels Sakkariasen</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021/Aug/21</t>
+          <t>2021/Aug/20</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -615,37 +615,37 @@
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>055</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>61.2341</t>
+          <t>61.2340</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>45.4969</t>
+          <t>45.4967</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>shoreline</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021/Aug/21</t>
+          <t>2021/Aug/20</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -656,7 +656,7 @@
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>056</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -666,125 +666,125 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>45.4968</t>
+          <t>45.4967</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>23</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>shoreline</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021/Aug/21</t>
+          <t>2021/Aug/20</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Engelmani Blue Spruce</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>057</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>61.2341</t>
+          <t>61.2343</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>45.4968</t>
+          <t>45.4969</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>19</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>shoreline</t>
+          <t>Niels Sakkariasen</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021/Aug/21</t>
+          <t>2021/Aug/20</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Engelmani Blue Spruce</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>058</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>61.2341</t>
+          <t>61.2343</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>45.4971</t>
+          <t>45.4969</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>19</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>shoreline</t>
+          <t>Niels Sakkariasen</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2021/Aug/21</t>
+          <t>2021/Aug/20</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>sitchensis</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>079</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>61.2341</t>
+          <t>61.2343</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -794,79 +794,79 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>18</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>shoreline</t>
+          <t>Niels Sakkariasen</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2021/Aug/21</t>
+          <t>2021/Aug/20</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>sitchensis</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>080</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>61.2341</t>
+          <t>61.2343</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>45.4971</t>
+          <t>45.4970</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>19</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>shoreline</t>
+          <t>Niels Sakkariasen</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2021/Aug/21</t>
+          <t>2021/Aug/20</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>sitchensis</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>081</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>61.2341</t>
+          <t>61.2343</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -876,63 +876,63 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>18</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>shoreline</t>
+          <t>Niels Sakkariasen</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2021/Aug/21</t>
+          <t>2021/Aug/20</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Engelmani Blue Spruce</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>082</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>61.2341</t>
+          <t>61.2343</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>45.4970</t>
+          <t>45.4969</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>18</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>shoreline</t>
+          <t>Niels Sakkariasen</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2021/Aug/21</t>
+          <t>2021/Aug/20</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -943,12 +943,12 @@
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>083</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>61.2341</t>
+          <t>61.2343</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -958,7 +958,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>18</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -969,11 +969,11 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2021/Aug/21</t>
+          <t>2021/Aug/20</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -984,22 +984,22 @@
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>084</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>61.2342</t>
+          <t>61.2343</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>45.4970</t>
+          <t>45.4968</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>13</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1010,11 +1010,11 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2021/Aug/21</t>
+          <t>2021/Aug/20</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1025,22 +1025,22 @@
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>085</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>61.2347</t>
+          <t>61.2343</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>45.4950</t>
+          <t>45.4968</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1051,11 +1051,11 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2021/Aug/21</t>
+          <t>2021/Aug/20</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1066,22 +1066,22 @@
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>086</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>61.2342</t>
+          <t>61.2343</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>45.4970</t>
+          <t>45.4968</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>15</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1092,11 +1092,11 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2021/Aug/21</t>
+          <t>2021/Aug/20</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1107,22 +1107,22 @@
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>087</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>61.2342</t>
+          <t>61.2343</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>45.4969</t>
+          <t>45.4968</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1133,11 +1133,11 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2021/Aug/21</t>
+          <t>2021/Aug/20</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1148,22 +1148,22 @@
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>088</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>61.2347</t>
+          <t>61.2343</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>45.4963</t>
+          <t>45.4968</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>13</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1174,11 +1174,11 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2021/Aug/21</t>
+          <t>2021/Aug/20</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1189,22 +1189,22 @@
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>089</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>61.2347</t>
+          <t>61.2343</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>45.4963</t>
+          <t>45.4968</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>13</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1215,11 +1215,11 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2021/Aug/21</t>
+          <t>2021/Aug/20</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1230,22 +1230,22 @@
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>090</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>61.2346</t>
+          <t>61.2343</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>45.4963</t>
+          <t>45.4969</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1256,11 +1256,11 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2021/Aug/21</t>
+          <t>2021/Aug/20</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1271,22 +1271,22 @@
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>091</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>61.2344</t>
+          <t>61.2343</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>45.4963</t>
+          <t>45.4969</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>13</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1297,11 +1297,11 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2021/Aug/21</t>
+          <t>2021/Aug/20</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1312,7 +1312,7 @@
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>092</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1322,12 +1322,12 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>45.4963</t>
+          <t>45.4969</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1338,11 +1338,11 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2021/Aug/21</t>
+          <t>2021/Aug/20</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1353,22 +1353,22 @@
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>093</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>61.2343</t>
+          <t>61.2341</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>45.4963</t>
+          <t>45.4967</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1379,37 +1379,37 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2021/Aug/28</t>
+          <t>2021/Aug/20</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>sitka</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>094</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>61.2328</t>
+          <t>61.2341</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>45.4957</t>
+          <t>45.4967</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1420,37 +1420,37 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2021/Aug/28</t>
+          <t>2021/Aug/20</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>contorta</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>095</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>61.2328</t>
+          <t>61.2340</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>45.4959</t>
+          <t>45.4967</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1461,37 +1461,37 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2021/Aug/28</t>
+          <t>2021/Aug/20</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>sibirca</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>096</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>61.2328</t>
+          <t>61.2343</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>45.4959</t>
+          <t>45.4963</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1502,37 +1502,37 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2021/Aug/28</t>
+          <t>2021/Aug/21</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>contorta</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>097</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>61.2328</t>
+          <t>61.2341</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>45.4958</t>
+          <t>45.4970</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>17</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1543,37 +1543,37 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2021/Aug/28</t>
+          <t>2021/Aug/21</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>sibirca</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>098</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>61.2328</t>
+          <t>61.2341</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>45.4956</t>
+          <t>45.4970</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>16</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1584,37 +1584,37 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2021/Aug/28</t>
+          <t>2021/Aug/21</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>sibirca</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>099</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>61.2328</t>
+          <t>61.2341</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>45.4956</t>
+          <t>45.4970</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>16</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1625,37 +1625,37 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2021/Aug/28</t>
+          <t>2021/Aug/21</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>contorta</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>100</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>61.2328</t>
+          <t>61.2341</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>45.4956</t>
+          <t>45.4970</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>16</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -1666,37 +1666,37 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2021/Aug/28</t>
+          <t>2021/Aug/21</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>sibirca</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>101</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>61.2328</t>
+          <t>61.2341</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>45.4957</t>
+          <t>45.4969</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>17</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -1707,37 +1707,37 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2021/Aug/28</t>
+          <t>2021/Aug/21</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>sibirca</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>102</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>61.2328</t>
+          <t>61.2341</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>45.4958</t>
+          <t>45.4969</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>18</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -1748,37 +1748,37 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2021/Aug/28</t>
+          <t>2021/Aug/21</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>contorta</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>103</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>61.2328</t>
+          <t>61.2341</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>45.4957</t>
+          <t>45.4969</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>18</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -1789,37 +1789,37 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2021/Aug/28</t>
+          <t>2021/Aug/21</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>contorta</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>104</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>61.2328</t>
+          <t>61.2341</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>45.4957</t>
+          <t>45.4968</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>15</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -1830,37 +1830,37 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2021/Aug/28</t>
+          <t>2021/Aug/21</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>sibirca</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>105</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>61.2328</t>
+          <t>61.2341</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>45.4957</t>
+          <t>45.4968</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>16</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -1871,37 +1871,37 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2021/Aug/28</t>
+          <t>2021/Aug/21</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>sibirca</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>106</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>61.2328</t>
+          <t>61.2341</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>45.4957</t>
+          <t>45.4971</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -1912,37 +1912,37 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2021/Aug/28</t>
+          <t>2021/Aug/21</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>contorta</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>107</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>61.2329</t>
+          <t>61.2341</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>45.4957</t>
+          <t>45.4970</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>14</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -1953,37 +1953,37 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2021/Aug/28</t>
+          <t>2021/Aug/21</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>contorta</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>108</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>61.2328</t>
+          <t>61.2341</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>45.4958</t>
+          <t>45.4971</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -1994,37 +1994,37 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2021/Aug/28</t>
+          <t>2021/Aug/21</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>sibirca</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>109</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>61.2328</t>
+          <t>61.2341</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>45.4959</t>
+          <t>45.4970</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2035,37 +2035,37 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2021/Aug/28</t>
+          <t>2021/Aug/21</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>sitka</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>110</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>61.2328</t>
+          <t>61.2341</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>45.4958</t>
+          <t>45.4970</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2076,37 +2076,37 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2021/Aug/28</t>
+          <t>2021/Aug/21</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>sibirca</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>112</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>61.2329</t>
+          <t>61.2341</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>45.4960</t>
+          <t>45.4969</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>15</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2117,37 +2117,37 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2021/Aug/28</t>
+          <t>2021/Aug/21</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>contorta</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>113</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>61.2328</t>
+          <t>61.2342</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>45.4960</t>
+          <t>45.4970</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2158,37 +2158,37 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2021/Aug/28</t>
+          <t>2021/Aug/21</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>sibirca</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>114</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>61.2329</t>
+          <t>61.2347</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>45.4959</t>
+          <t>45.4950</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2199,37 +2199,37 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2021/Aug/28</t>
+          <t>2021/Aug/21</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>sibirca</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>115</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>61.2328</t>
+          <t>61.2342</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>45.4960</t>
+          <t>45.4970</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2240,37 +2240,37 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2021/Aug/28</t>
+          <t>2021/Aug/21</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>contorta</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>116</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>61.2329</t>
+          <t>61.2342</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>45.4959</t>
+          <t>45.4969</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>13</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2281,37 +2281,37 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2021/Aug/28</t>
+          <t>2021/Aug/21</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>sibirca</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>117</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>61.2328</t>
+          <t>61.2347</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>45.4960</t>
+          <t>45.4963</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>22</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2322,37 +2322,37 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2021/Aug/28</t>
+          <t>2021/Aug/21</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>sibirca</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>118</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>61.2328</t>
+          <t>61.2347</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>45.4960</t>
+          <t>45.4963</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>24</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -2363,249 +2363,237 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2021/Aug/29</t>
+          <t>2021/Aug/21</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>sibirca</t>
-        </is>
-      </c>
-      <c r="D48" t="n">
-        <v>26</v>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>119</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>61.2348</t>
+          <t>61.2346</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>45.4969</t>
+          <t>45.4963</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>23</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>shoreline</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2021/Aug/29</t>
+          <t>2021/Aug/21</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>sibirca</t>
-        </is>
-      </c>
-      <c r="D49" t="n">
-        <v>24</v>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>120</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>61.2348</t>
+          <t>61.2344</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>45.4969</t>
+          <t>45.4963</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>21</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>shoreline</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2021/Aug/29</t>
+          <t>2021/Aug/21</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>sibirca</t>
-        </is>
-      </c>
-      <c r="D50" t="n">
-        <v>21</v>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>121</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>61.2348</t>
+          <t>61.2343</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>45.4968</t>
+          <t>45.4963</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>20</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>shoreline</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2021/Aug/29</t>
+          <t>2021/Aug/21</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>sibirca</t>
-        </is>
-      </c>
-      <c r="D51" t="n">
-        <v>24</v>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>122</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>61.2349</t>
+          <t>61.2343</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>45.4968</t>
+          <t>45.4963</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>20</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>shoreline</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2021/Aug/29</t>
+          <t>2021/Aug/28</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>sibirca</t>
-        </is>
-      </c>
-      <c r="D52" t="n">
-        <v>26</v>
-      </c>
+          <t>sitka</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>123</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>61.2349</t>
+          <t>61.2328</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>45.4968</t>
+          <t>45.4957</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>shoreline</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2021/Aug/29</t>
+          <t>2021/Aug/28</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>sibirca</t>
-        </is>
-      </c>
-      <c r="D53" t="n">
-        <v>22</v>
-      </c>
+          <t>contorta</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>124</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>61.2349</t>
+          <t>61.2328</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>45.4968</t>
+          <t>45.4959</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2615,146 +2603,140 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>shoreline</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2021/Aug/29</t>
+          <t>2021/Aug/28</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>contorta</t>
-        </is>
-      </c>
-      <c r="D54" t="n">
-        <v>6</v>
-      </c>
+          <t>sibirca</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>125</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>61.2349</t>
+          <t>61.2328</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>45.4967</t>
+          <t>45.4959</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>8</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>shoreline</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2021/Aug/29</t>
+          <t>2021/Aug/28</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>sibirca</t>
-        </is>
-      </c>
-      <c r="D55" t="n">
-        <v>11</v>
-      </c>
+          <t>contorta</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>126</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>61.2349</t>
+          <t>61.2328</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>45.4966</t>
+          <t>45.4958</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>8</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>shoreline</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2021/Aug/29</t>
+          <t>2021/Aug/28</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>sitka or engelmanni</t>
-        </is>
-      </c>
-      <c r="D56" t="n">
-        <v>6</v>
-      </c>
+          <t>sibirca</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>127</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>61.2349</t>
+          <t>61.2328</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>45.4967</t>
+          <t>45.4956</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>9</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>shoreline</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2021/Aug/29</t>
+          <t>2021/Aug/28</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2762,85 +2744,81 @@
           <t>sibirca</t>
         </is>
       </c>
-      <c r="D57" t="n">
-        <v>7</v>
-      </c>
+      <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>128</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>61.2349</t>
+          <t>61.2328</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>45.4967</t>
+          <t>45.4956</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>shoreline</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2021/Aug/29</t>
+          <t>2021/Aug/28</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>sibirca</t>
-        </is>
-      </c>
-      <c r="D58" t="n">
-        <v>18</v>
-      </c>
+          <t>contorta</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>129</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>61.2349</t>
+          <t>61.2328</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>45.4967</t>
+          <t>45.4956</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>shoreline</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2021/Aug/29</t>
+          <t>2021/Aug/28</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2848,343 +2826,327 @@
           <t>sibirca</t>
         </is>
       </c>
-      <c r="D59" t="n">
-        <v>14</v>
-      </c>
+      <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>130</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>61.2349</t>
+          <t>61.2328</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>45.4967</t>
+          <t>45.4957</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>shoreline</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2021/Aug/29</t>
+          <t>2021/Aug/28</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>contorta</t>
-        </is>
-      </c>
-      <c r="D60" t="n">
-        <v>10</v>
-      </c>
+          <t>sibirca</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>131</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>61.2349</t>
+          <t>61.2328</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>45.4967</t>
+          <t>45.4958</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>shoreline</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2021/Aug/29</t>
+          <t>2021/Aug/28</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>sibirca</t>
-        </is>
-      </c>
-      <c r="D61" t="n">
-        <v>23</v>
-      </c>
+          <t>contorta</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>132</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>61.2349</t>
+          <t>61.2328</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>45.4967</t>
+          <t>45.4957</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>shoreline</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2021/Aug/29</t>
+          <t>2021/Aug/28</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>sibirca</t>
-        </is>
-      </c>
-      <c r="D62" t="n">
-        <v>19</v>
-      </c>
+          <t>contorta</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>133</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>61.2348</t>
+          <t>61.2328</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>45.4967</t>
+          <t>45.4957</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>shoreline</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2021/Aug/29</t>
+          <t>2021/Aug/28</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>sitka or engelmanni</t>
-        </is>
-      </c>
-      <c r="D63" t="n">
-        <v>15</v>
-      </c>
+          <t>sibirca</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>134</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>61.2349</t>
+          <t>61.2328</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>45.4967</t>
+          <t>45.4957</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>shoreline</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2021/Aug/29</t>
+          <t>2021/Aug/28</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>contorta</t>
-        </is>
-      </c>
-      <c r="D64" t="n">
-        <v>10</v>
-      </c>
+          <t>sibirca</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>136</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>61.2349</t>
+          <t>61.2328</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>45.4968</t>
+          <t>45.4957</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>6</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>shoreline</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2021/Aug/29</t>
+          <t>2021/Aug/28</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>sibirca</t>
-        </is>
-      </c>
-      <c r="D65" t="n">
-        <v>15</v>
-      </c>
+          <t>contorta</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>137</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>61.2349</t>
+          <t>61.2329</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>45.4967</t>
+          <t>45.4957</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>7</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>shoreline</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2021/Aug/29</t>
+          <t>2021/Aug/28</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>sibirca</t>
-        </is>
-      </c>
-      <c r="D66" t="n">
-        <v>11</v>
-      </c>
+          <t>contorta</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>138</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>61.2349</t>
+          <t>61.2328</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>45.4968</t>
+          <t>45.4958</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>8</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>shoreline</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2021/Aug/29</t>
+          <t>2021/Aug/28</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3192,214 +3154,204 @@
           <t>sibirca</t>
         </is>
       </c>
-      <c r="D67" t="n">
-        <v>22</v>
-      </c>
+      <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>139</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>61.2349</t>
+          <t>61.2328</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>45.4968</t>
+          <t>45.4959</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>8</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>shoreline</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2021/Aug/29</t>
+          <t>2021/Aug/28</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>contorta</t>
-        </is>
-      </c>
-      <c r="D68" t="n">
-        <v>5</v>
-      </c>
+          <t>sitka</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>140</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>61.2349</t>
+          <t>61.2328</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>45.4967</t>
+          <t>45.4958</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>7</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>shoreline</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2021/Aug/29</t>
+          <t>2021/Aug/28</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>contorta</t>
-        </is>
-      </c>
-      <c r="D69" t="n">
-        <v>6</v>
-      </c>
+          <t>sibirca</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>141</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>61.2349</t>
+          <t>61.2329</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>45.4968</t>
+          <t>45.4960</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>shoreline</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2021/Aug/29</t>
+          <t>2021/Aug/28</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>sibirca</t>
-        </is>
-      </c>
-      <c r="D70" t="n">
-        <v>6</v>
-      </c>
+          <t>contorta</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>142</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>61.2349</t>
+          <t>61.2328</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>45.4967</t>
+          <t>45.4960</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>shoreline</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2021/Aug/29</t>
+          <t>2021/Aug/28</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>contorta</t>
-        </is>
-      </c>
-      <c r="D71" t="n">
-        <v>8</v>
-      </c>
+          <t>sibirca</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>143</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>61.2349</t>
+          <t>61.2329</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>45.4967</t>
+          <t>45.4959</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>8</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>shoreline</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2021/Aug/29</t>
+          <t>2021/Aug/28</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3407,85 +3359,81 @@
           <t>sibirca</t>
         </is>
       </c>
-      <c r="D72" t="n">
-        <v>6</v>
-      </c>
+      <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>144</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>61.2349</t>
+          <t>61.2328</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>45.4968</t>
+          <t>45.4960</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>shoreline</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2021/Aug/29</t>
+          <t>2021/Aug/28</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>sibirca</t>
-        </is>
-      </c>
-      <c r="D73" t="n">
-        <v>8</v>
-      </c>
+          <t>contorta</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>145</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>61.2350</t>
+          <t>61.2329</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>45.4967</t>
+          <t>45.4959</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>shoreline</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2021/Aug/29</t>
+          <t>2021/Aug/28</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3493,99 +3441,99 @@
           <t>sibirca</t>
         </is>
       </c>
-      <c r="D74" t="n">
-        <v>8</v>
-      </c>
+      <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>146</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>61.2350</t>
+          <t>61.2328</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>45.4967</t>
+          <t>45.4960</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>7</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>shoreline</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2021/Aug/20</t>
+          <t>2021/Aug/28</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>betula</t>
+          <t>sibirca</t>
         </is>
       </c>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>147</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>61.2345</t>
+          <t>61.2328</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>45.4969</t>
+          <t>45.4960</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>7</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Niels Sakkariasen</t>
+          <t>shoreline</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2021/Aug/20</t>
+          <t>2021/Aug/29</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>sitchensis</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr"/>
+          <t>sibirca</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>26</v>
+      </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>148</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>61.2345</t>
+          <t>61.2348</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -3595,38 +3543,40 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Niels Sakkariasen</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2021/Aug/20</t>
+          <t>2021/Aug/29</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>sitchensis</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr"/>
+          <t>sibirca</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>24</v>
+      </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>149</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>61.2343</t>
+          <t>61.2348</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -3636,48 +3586,50 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Niels Sakkariasen</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2021/Aug/20</t>
+          <t>2021/Aug/29</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr"/>
+          <t>sibirca</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>21</v>
+      </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>150</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>61.2340</t>
+          <t>61.2348</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>45.4967</t>
+          <t>45.4968</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>6</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -3688,37 +3640,39 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2021/Aug/20</t>
+          <t>2021/Aug/29</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr"/>
+          <t>sibirca</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>24</v>
+      </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>151</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>61.2341</t>
+          <t>61.2349</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>45.4967</t>
+          <t>45.4968</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -3729,360 +3683,378 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2021/Aug/20</t>
+          <t>2021/Aug/29</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Engelmani Blue Spruce</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr"/>
+          <t>sibirca</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>26</v>
+      </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>152</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>61.2343</t>
+          <t>61.2349</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>45.4969</t>
+          <t>45.4968</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>9</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Niels Sakkariasen</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2021/Aug/20</t>
+          <t>2021/Aug/29</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Engelmani Blue Spruce</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr"/>
+          <t>sibirca</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>22</v>
+      </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>153</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>61.2343</t>
+          <t>61.2349</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>45.4969</t>
+          <t>45.4968</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>8</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Niels Sakkariasen</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2021/Aug/20</t>
+          <t>2021/Aug/29</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>sitchensis</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr"/>
+          <t>contorta</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>6</v>
+      </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>154</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>61.2343</t>
+          <t>61.2349</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>45.4970</t>
+          <t>45.4967</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Niels Sakkariasen</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2021/Aug/20</t>
+          <t>2021/Aug/29</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>sitchensis</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr"/>
+          <t>sibirca</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>11</v>
+      </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>155</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>61.2343</t>
+          <t>61.2349</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>45.4970</t>
+          <t>45.4966</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Niels Sakkariasen</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2021/Aug/20</t>
+          <t>2021/Aug/29</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>sitchensis</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr"/>
+          <t>sitka or engelmanni</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>6</v>
+      </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>156</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>61.2343</t>
+          <t>61.2349</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>45.4970</t>
+          <t>45.4967</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Niels Sakkariasen</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2021/Aug/20</t>
+          <t>2021/Aug/29</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Engelmani Blue Spruce</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr"/>
+          <t>sibirca</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>7</v>
+      </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>157</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>61.2343</t>
+          <t>61.2349</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>45.4969</t>
+          <t>45.4967</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Niels Sakkariasen</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2021/Aug/20</t>
+          <t>2021/Aug/29</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr"/>
+          <t>sibirca</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>18</v>
+      </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>158</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>61.2343</t>
+          <t>61.2349</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>45.4969</t>
+          <t>45.4967</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>shoreline</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2021/Aug/20</t>
+          <t>2021/Aug/29</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr"/>
+          <t>sibirca</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>14</v>
+      </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>159</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>61.2343</t>
+          <t>61.2349</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>45.4968</t>
+          <t>45.4967</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>shoreline</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2021/Aug/20</t>
+          <t>2021/Aug/29</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr"/>
+          <t>contorta</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>10</v>
+      </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>160</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>61.2343</t>
+          <t>61.2349</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>45.4968</t>
+          <t>45.4967</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4092,156 +4064,164 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>shoreline</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2021/Aug/20</t>
+          <t>2021/Aug/29</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr"/>
+          <t>sibirca</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>23</v>
+      </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>161</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>61.2343</t>
+          <t>61.2349</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>45.4968</t>
+          <t>45.4967</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>shoreline</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2021/Aug/20</t>
+          <t>2021/Aug/29</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr"/>
+          <t>sibirca</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>19</v>
+      </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>162</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>61.2343</t>
+          <t>61.2348</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>45.4968</t>
+          <t>45.4967</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>shoreline</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2021/Aug/20</t>
+          <t>2021/Aug/29</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr"/>
+          <t>sitka or engelmanni</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>15</v>
+      </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>163</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>61.2343</t>
+          <t>61.2349</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>45.4968</t>
+          <t>45.4967</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>shoreline</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2021/Aug/20</t>
+          <t>2021/Aug/29</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr"/>
+          <t>contorta</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>10</v>
+      </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>164</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>61.2343</t>
+          <t>61.2349</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -4251,84 +4231,88 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>shoreline</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2021/Aug/20</t>
+          <t>2021/Aug/29</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr"/>
+          <t>sibirca</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>15</v>
+      </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>165</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>61.2343</t>
+          <t>61.2349</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>45.4969</t>
+          <t>45.4967</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>shoreline</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2021/Aug/20</t>
+          <t>2021/Aug/29</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr"/>
+          <t>sibirca</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>11</v>
+      </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>166</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>61.2343</t>
+          <t>61.2349</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>45.4969</t>
+          <t>45.4968</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4338,74 +4322,78 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>shoreline</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2021/Aug/20</t>
+          <t>2021/Aug/29</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr"/>
+          <t>sibirca</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>22</v>
+      </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>167</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>61.2343</t>
+          <t>61.2349</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>45.4969</t>
+          <t>45.4968</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>shoreline</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2021/Aug/20</t>
+          <t>2021/Aug/29</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr"/>
+          <t>contorta</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>5</v>
+      </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>168</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>61.2341</t>
+          <t>61.2349</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -4420,38 +4408,40 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>shoreline</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2021/Aug/20</t>
+          <t>2021/Aug/29</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr"/>
+          <t>contorta</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>6</v>
+      </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>169</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>61.2341</t>
+          <t>61.2349</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>45.4967</t>
+          <t>45.4968</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -4461,33 +4451,35 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>shoreline</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2021/Aug/20</t>
+          <t>2021/Aug/29</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr"/>
+          <t>sibirca</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>6</v>
+      </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>170</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>61.2340</t>
+          <t>61.2349</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -4502,171 +4494,179 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>shoreline</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2021/Aug/20</t>
+          <t>2021/Aug/29</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr"/>
+          <t>contorta</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>8</v>
+      </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>171</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>61.2343</t>
+          <t>61.2349</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>45.4963</t>
+          <t>45.4967</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>shoreline</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>25</v>
+        <v>98</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2021/Aug/21</t>
+          <t>2021/Aug/29</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr"/>
+          <t>sibirca</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>6</v>
+      </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>172</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>61.2341</t>
+          <t>61.2349</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>45.4970</t>
+          <t>45.4968</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>shoreline</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2021/Aug/21</t>
+          <t>2021/Aug/29</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr"/>
+          <t>sibirca</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>8</v>
+      </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>173</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>61.2341</t>
+          <t>61.2350</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>45.4970</t>
+          <t>45.4967</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>shoreline</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2021/Aug/21</t>
+          <t>2021/Aug/29</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr"/>
+          <t>sibirca</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>8</v>
+      </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>174</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>61.2341</t>
+          <t>61.2350</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>45.4970</t>
+          <t>45.4967</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>13</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>shoreline</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
